--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T08:28:42+00:00</t>
+    <t>2024-03-21T08:38:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T08:38:30+00:00</t>
+    <t>2024-03-21T08:38:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Observation Telesurveillance</t>
+    <t>Profil Observation pour la telesurveillance</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T08:38:54+00:00</t>
+    <t>2024-03-22T13:10:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T13:10:55+00:00</t>
+    <t>2024-03-22T13:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T13:32:14+00:00</t>
+    <t>2024-04-22T13:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -640,8 +640,8 @@
 </t>
   </si>
   <si>
-    <t>recommandé : Grande catégorie qui peut servir à identifier les différentes sources d'observations en télésurveillance: vital-sign : constantes physiologiques, signes vitaux, mesures | laboratory : résultat de labo (hors périmètre de ce profil) 
-survey : réponse à questionnaire ou score | exam : résultat d'examen clinique (hors périmètre TLS) | activity : activité physique (#pas, #longueurs de piscine, ...)</t>
+    <t>recommandé : Grande catégorie qui peut servir à identifier les différentes sources d'observations en télésurveillance: vital-sign : constantes physiologiques, signes vitaux, mesures | 
+survey : réponse à questionnaire ou score |  activity : activité physique (#pas, #longueurs de piscine, ...)</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -807,7 +807,7 @@
 Period</t>
   </si>
   <si>
-    <t>requis : le temps clinique ou physiologique de l'observation : par exemple la journée pour un comptage de pas, ou la date et heure de prélèvement pour un résultat de labo, ou la date et heure de pesage</t>
+    <t>requis : le temps clinique ou physiologique de l'observation : par exemple la journée pour un comptage de pas, ou la date et heure de pesage</t>
   </si>
   <si>
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T13:23:40+00:00</t>
+    <t>2024-04-22T14:23:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T14:23:17+00:00</t>
+    <t>2024-04-25T08:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T08:29:58+00:00</t>
+    <t>2024-05-06T08:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T08:47:22+00:00</t>
+    <t>2024-06-05T15:37:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T15:37:27+00:00</t>
+    <t>2024-06-06T09:48:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T09:48:48+00:00</t>
+    <t>2024-06-17T15:37:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:37:46+00:00</t>
+    <t>2024-06-17T15:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:38:51+00:00</t>
+    <t>2024-06-17T15:39:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:39:30+00:00</t>
+    <t>2024-06-18T07:42:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-ballot</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T18:51:04+00:00</t>
+    <t>2024-09-23T10:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -338,17 +338,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Observation.implicitRules</t>
   </si>
   <si>
@@ -368,9 +361,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.language</t>
   </si>
   <si>
@@ -448,6 +438,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Observation.extension</t>
   </si>
   <si>
@@ -468,16 +461,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -546,14 +529,7 @@
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -656,9 +632,6 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/tlsv/ValueSet/TLSVCategory</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
@@ -903,8 +876,8 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>ele-1
-obs-7</t>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -944,8 +917,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>ele-1
-obs-6</t>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1172,6 +1145,9 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Observation.referenceRange.extension</t>
   </si>
   <si>
@@ -1211,15 +1187,8 @@
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1
-obs-3</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t xml:space="preserve">obs-3
+</t>
   </si>
   <si>
     <t>OBX-7</t>
@@ -1307,19 +1276,9 @@
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
   </si>
   <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
     <t>Some analytes vary greatly over age.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
     <t>outboundRelationship[typeCode=PRCN].targetObservationCriterion[code="age"].value</t>
   </si>
   <si>
@@ -1330,9 +1289,6 @@
   </si>
   <si>
     <t>Text based reference range in an observation which may be used when a quantitative range is not appropriate for an observation.  An example would be a reference value of "Negative" or a list or table of "normals".</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>value:ST</t>
@@ -1819,7 +1775,7 @@
     <col min="26" max="26" width="60.2890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2296,11 +2252,11 @@
         <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
       </c>
@@ -2311,7 +2267,7 @@
         <v>82</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AO4" t="s" s="2">
         <v>82</v>
@@ -2322,10 +2278,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2348,16 +2304,16 @@
         <v>94</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2407,7 +2363,7 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
@@ -2416,11 +2372,11 @@
         <v>93</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>82</v>
       </c>
@@ -2431,7 +2387,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -2442,10 +2398,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2468,16 +2424,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2503,31 +2459,31 @@
         <v>82</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -2536,11 +2492,11 @@
         <v>93</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
       </c>
@@ -2551,7 +2507,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -2562,14 +2518,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2588,16 +2544,16 @@
         <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2647,7 +2603,7 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
@@ -2656,11 +2612,11 @@
         <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
       </c>
@@ -2671,7 +2627,7 @@
         <v>82</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>82</v>
@@ -2682,14 +2638,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2708,16 +2664,16 @@
         <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2767,7 +2723,7 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -2791,7 +2747,7 @@
         <v>82</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>82</v>
@@ -2802,14 +2758,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2828,16 +2784,16 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2875,19 +2831,19 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -2896,10 +2852,10 @@
         <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -2911,7 +2867,7 @@
         <v>82</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>82</v>
@@ -2922,14 +2878,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2948,19 +2904,19 @@
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>82</v>
@@ -2997,19 +2953,19 @@
         <v>82</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3018,10 +2974,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3033,7 +2989,7 @@
         <v>82</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>82</v>
@@ -3044,10 +3000,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3070,17 +3026,17 @@
         <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>82</v>
@@ -3129,7 +3085,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3138,25 +3094,25 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>82</v>
@@ -3164,14 +3120,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3190,19 +3146,17 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>82</v>
@@ -3251,7 +3205,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3260,22 +3214,22 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>82</v>
@@ -3286,14 +3240,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3312,16 +3266,16 @@
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3371,7 +3325,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3380,22 +3334,22 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AK13" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>82</v>
@@ -3406,10 +3360,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3432,19 +3386,19 @@
         <v>94</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>82</v>
@@ -3469,13 +3423,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -3493,7 +3447,7 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>93</v>
@@ -3502,25 +3456,25 @@
         <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>82</v>
@@ -3528,10 +3482,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3554,19 +3508,19 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3591,11 +3545,11 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
@@ -3613,7 +3567,7 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3622,11 +3576,11 @@
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
       </c>
@@ -3634,13 +3588,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3648,14 +3602,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3674,19 +3628,19 @@
         <v>94</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3711,13 +3665,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3735,7 +3689,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>93</v>
@@ -3744,36 +3698,36 @@
         <v>93</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3796,19 +3750,19 @@
         <v>94</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -3857,7 +3811,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3866,25 +3820,25 @@
         <v>93</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>82</v>
@@ -3892,10 +3846,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3918,16 +3872,16 @@
         <v>94</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3977,7 +3931,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3986,11 +3940,11 @@
         <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
       </c>
@@ -3998,13 +3952,13 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>82</v>
@@ -4012,14 +3966,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4038,19 +3992,19 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4099,7 +4053,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4108,25 +4062,25 @@
         <v>93</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4134,14 +4088,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4160,19 +4114,19 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4221,7 +4175,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4230,25 +4184,25 @@
         <v>93</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4256,10 +4210,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4282,16 +4236,16 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4341,7 +4295,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4350,11 +4304,11 @@
         <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK21" t="s" s="2">
         <v>82</v>
       </c>
@@ -4362,13 +4316,13 @@
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4376,10 +4330,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4402,19 +4356,17 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4463,7 +4415,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4472,25 +4424,25 @@
         <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4498,10 +4450,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4524,19 +4476,19 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4585,7 +4537,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4594,36 +4546,36 @@
         <v>93</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4646,19 +4598,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4683,13 +4635,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -4707,7 +4659,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4716,10 +4668,10 @@
         <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -4728,10 +4680,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4742,14 +4694,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4768,19 +4720,19 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4805,13 +4757,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -4829,7 +4781,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4838,36 +4790,36 @@
         <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4890,19 +4842,19 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4951,7 +4903,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4960,11 +4912,11 @@
         <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
       </c>
@@ -4972,10 +4924,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -4986,10 +4938,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5012,16 +4964,16 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5047,13 +4999,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5071,7 +5023,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5080,36 +5032,36 @@
         <v>93</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5132,19 +5084,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5169,13 +5121,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5193,7 +5145,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5202,11 +5154,11 @@
         <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5214,10 +5166,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5228,10 +5180,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5254,16 +5206,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5313,7 +5265,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5322,36 +5274,36 @@
         <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5374,16 +5326,16 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5433,7 +5385,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5442,36 +5394,36 @@
         <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5494,19 +5446,19 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5555,7 +5507,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5564,10 +5516,10 @@
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -5576,10 +5528,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5590,10 +5542,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5616,13 +5568,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5673,7 +5625,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5697,7 +5649,7 @@
         <v>82</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>114</v>
+        <v>361</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -5708,14 +5660,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5734,16 +5686,16 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5781,19 +5733,19 @@
         <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5802,10 +5754,10 @@
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -5817,7 +5769,7 @@
         <v>82</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>107</v>
+        <v>361</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5828,14 +5780,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5854,19 +5806,19 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -5915,7 +5867,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5924,10 +5876,10 @@
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -5939,7 +5891,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5950,10 +5902,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5976,17 +5928,15 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6035,7 +5985,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6044,10 +5994,10 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>383</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6056,10 +6006,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6070,10 +6020,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6096,17 +6046,15 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="M36" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6155,7 +6103,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6164,10 +6112,10 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>383</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6176,10 +6124,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6190,10 +6138,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6216,19 +6164,19 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6253,13 +6201,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6277,7 +6225,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6286,22 +6234,22 @@
         <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6312,10 +6260,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6338,19 +6286,19 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6375,13 +6323,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6399,7 +6347,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6408,22 +6356,22 @@
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6434,10 +6382,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6460,19 +6408,17 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6521,7 +6467,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6530,11 +6476,11 @@
         <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6542,10 +6488,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>413</v>
+        <v>82</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6556,10 +6502,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6582,17 +6528,15 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6641,7 +6585,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6650,11 +6594,11 @@
         <v>93</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6662,10 +6606,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6676,10 +6620,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6702,16 +6646,16 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6761,7 +6705,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6770,11 +6714,11 @@
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AK41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6782,10 +6726,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6796,10 +6740,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6822,16 +6766,16 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6881,7 +6825,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6890,11 +6834,11 @@
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
       </c>
@@ -6902,10 +6846,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6916,10 +6860,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6942,19 +6886,19 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7003,7 +6947,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7012,11 +6956,11 @@
         <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7024,10 +6968,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7038,10 +6982,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7064,13 +7008,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7121,7 +7065,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7145,7 +7089,7 @@
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>114</v>
+        <v>361</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7156,14 +7100,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7182,16 +7126,16 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7229,19 +7173,19 @@
         <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7250,10 +7194,10 @@
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7265,7 +7209,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>107</v>
+        <v>361</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7276,14 +7220,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7302,19 +7246,19 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7363,7 +7307,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7372,10 +7316,10 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7387,7 +7331,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7398,10 +7342,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7424,19 +7368,19 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7461,13 +7405,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7485,7 +7429,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>93</v>
@@ -7494,25 +7438,25 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>82</v>
@@ -7520,10 +7464,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7546,19 +7490,19 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7607,7 +7551,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7616,36 +7560,36 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7668,19 +7612,19 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7705,13 +7649,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7729,7 +7673,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7738,10 +7682,10 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -7750,10 +7694,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7764,14 +7708,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7790,19 +7734,19 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7827,13 +7771,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7851,7 +7795,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7860,36 +7804,36 @@
         <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7915,16 +7859,16 @@
         <v>83</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7973,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7985,7 +7929,7 @@
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -7994,10 +7938,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T10:26:57+00:00</t>
+    <t>2024-10-10T08:49:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -491,7 +491,7 @@
 </t>
   </si>
   <si>
-    <t>recommandé : identifiant métier unique attribué à cette mesure/réponse</t>
+    <t>(recommandé) identifiant métier unique attribué à cette mesure/réponse</t>
   </si>
   <si>
     <t>A unique identifier assigned to this observation.</t>
@@ -573,7 +573,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>requis : statut de la mesure/réponse: final | corrected | entered-in-error</t>
+    <t>Statut de la mesure/réponse: final | corrected | entered-in-error</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -616,8 +616,7 @@
 </t>
   </si>
   <si>
-    <t>recommandé : Grande catégorie qui peut servir à identifier les différentes sources d'observations en télésurveillance: vital-sign : constantes physiologiques, signes vitaux, mesures | 
-survey : réponse à questionnaire ou score |  activity : activité physique (#pas, #longueurs de piscine, ...)</t>
+    <t>(recommandé) Grande catégorie qui peut servir à identifier les différentes sources d'observations en télésurveillance: vital-sign : constantes physiologiques, signes vitaux, mesures | survey : réponse à questionnaire ou score |  activity : activité physique (#pas, #longueurs de piscine, ...)</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -645,7 +644,7 @@
 </t>
   </si>
   <si>
-    <t>requis : le type précis d'observation</t>
+    <t>Le code descriptif de l'observation</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -687,11 +686,11 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
 </t>
   </si>
   <si>
-    <t>requis : La référence au patient télésuivi : pointe vers la ressource Patient accessible sur un serveur ou présente dans le Bundle courant</t>
+    <t>La référence au patient télésuivi : pointe vers la ressource Patient accessible sur un serveur ou présente dans le Bundle courant</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
@@ -745,7 +744,7 @@
 </t>
   </si>
   <si>
-    <t>optionnel : référence à une visite d'un thérapeute au patient</t>
+    <t>Référence à une visite d'un thérapeute au patient</t>
   </si>
   <si>
     <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
@@ -780,7 +779,7 @@
 Period</t>
   </si>
   <si>
-    <t>requis : le temps clinique ou physiologique de l'observation : par exemple la journée pour un comptage de pas, ou la date et heure de pesage</t>
+    <t>Le temps clinique ou physiologique de l'observation : par exemple la journée pour un comptage de pas, ou la date et heure de pesage</t>
   </si>
   <si>
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
@@ -811,7 +810,7 @@
 </t>
   </si>
   <si>
-    <t>recommandé : date et heure de mise à disposition de cette version de l'observation</t>
+    <t>(recommandé) date et heure de mise à disposition de cette version de l'observation</t>
   </si>
   <si>
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
@@ -836,7 +835,7 @@
 </t>
   </si>
   <si>
-    <t>recommandé : La personne qui a réalisé l'observation, ou saisi ou validé le résultat (un professionnel de santé, un aidant, le patient ...)</t>
+    <t>(recommandé) La personne qui a réalisé l'observation, ou saisi ou validé le résultat (un professionnel de santé, un aidant, le patient ...)</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -864,7 +863,7 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>recommandé : le résultat de l'observation. En principe présent. Peut être absent pour signifier une question laissée sans réponse, ou pour effacer un résultat précédemment communiqué dans une version précédente de la ressource</t>
+    <t>(recommandé) le résultat de l'observation. En principe présent. Peut être absent pour signifier une question laissée sans réponse, ou pour effacer un résultat précédemment communiqué dans une version précédente de la ressource</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -895,7 +894,7 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>recommandé : à renseigner dans le cas où l'élément 'value' est absent</t>
+    <t>(recommandé) à renseigner dans le cas où l'élément 'value' est absent</t>
   </si>
   <si>
     <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
@@ -931,7 +930,7 @@
 </t>
   </si>
   <si>
-    <t>optionnel : utilisable pour représenter un niveau d'alerte déclenché par cette observation</t>
+    <t>Utilisable pour représenter un niveau d'alerte déclenché par cette observation</t>
   </si>
   <si>
     <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
@@ -968,7 +967,7 @@
 </t>
   </si>
   <si>
-    <t>optionnel : commentaire sur cette observation</t>
+    <t>Commentaire sur cette observation</t>
   </si>
   <si>
     <t>Comments about the observation or the results.</t>
@@ -989,7 +988,7 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>optionnel : partie du corps spécifiquement concernée par l'observation</t>
+    <t>Partie du corps spécifiquement concernée par l'observation</t>
   </si>
   <si>
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
@@ -1020,7 +1019,7 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t xml:space="preserve">optionnel : la méthode de mesure employée </t>
+    <t>La méthode de mesure employée</t>
   </si>
   <si>
     <t>Indicates the mechanism used to perform the observation.</t>
@@ -1079,7 +1078,7 @@
 </t>
   </si>
   <si>
-    <t>optionnel : le dispositif de mesure employé</t>
+    <t>Le dispositif de mesure employé</t>
   </si>
   <si>
     <t>The device used to generate the observation data.</t>
@@ -1107,7 +1106,7 @@
 </t>
   </si>
   <si>
-    <t>optionnel : un intervalle de référence applicable à ce patient pour cette observation</t>
+    <t>Un intervalle de référence applicable à ce patient pour cette observation</t>
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
@@ -1323,7 +1322,7 @@
 </t>
   </si>
   <si>
-    <t>optionnel : la ou les ressources qui contiennent les réponses du questionnaire</t>
+    <t>La ou les ressources qui contiennent les réponses du questionnaire</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
@@ -1338,7 +1337,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>conditionnel : présent pour certaines observations combinant deux mesures concomitantes (exemple pression artérielle systolique et diastolique), et dans ce cas l'élément Observation.value n'est en général pas présent</t>
+    <t>(conditionnel) présent pour certaines observations combinant deux mesures concomitantes, et dans ce cas l'élément Observation.value n'est en général pas présent</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T08:49:37+00:00</t>
+    <t>2024-10-10T08:54:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-03T07:57:06+00:00</t>
+    <t>2025-12-03T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -519,7 +519,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -548,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -662,7 +662,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -717,7 +717,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -740,7 +740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -831,7 +831,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -913,7 +913,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -945,7 +945,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1001,7 +1001,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1034,7 +1034,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1046,7 +1046,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1074,7 +1074,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1176,7 +1176,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1226,7 +1226,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1259,7 +1259,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1296,7 +1296,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1746,17 +1746,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1765,28 +1765,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.2890625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2997,7 +2997,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>150</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>190</v>
       </c>
@@ -7951,12 +7951,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP51">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:56:11+00:00</t>
+    <t>2025-12-03T10:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:56:15+00:00</t>
+    <t>2025-12-03T10:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tlsv-observation.xlsx
+++ b/main/ig/StructureDefinition-tlsv-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:56:47+00:00</t>
+    <t>2025-12-03T11:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
